--- a/SP_Sklad/TempLate/MatInShort(1).xlsx
+++ b/SP_Sklad/TempLate/MatInShort(1).xlsx
@@ -10,18 +10,18 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$I$15</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$I$16</definedName>
     <definedName name="MatInDet">Лист1!$A$13:$I$14</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$10</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>sum</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>СКОРОЧЕНИЙ ЗВІТ ПРО ПРИБУТОК ТОВАРІВ</t>
+  </si>
+  <si>
+    <t>sum_Summ</t>
   </si>
 </sst>
 </file>
@@ -70,9 +73,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -88,14 +91,6 @@
       <b/>
       <sz val="10"/>
       <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="53"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -241,7 +236,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -511,122 +512,122 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,11 +999,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:K105"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1032,79 +1033,79 @@
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="29" t="e">
+      <c r="D4" s="20" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="33" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="e">
+      <c r="C5" s="25"/>
+      <c r="D5" s="26" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29" t="e">
+      <c r="D6" s="20" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29" t="e">
+      <c r="C7" s="22"/>
+      <c r="D7" s="20" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1140,204 +1141,97 @@
       <c r="I10" s="43"/>
     </row>
     <row r="11" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="37"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="e">
+      <c r="B12" s="35" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="e">
+      <c r="B13" s="16" t="e">
         <f>MatInDet_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="53" t="e">
+      <c r="C13" s="38" t="e">
         <f>MatInDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="24" t="e">
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="15" t="e">
         <f>MatInDet_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="22" t="e">
+      <c r="G13" s="13" t="e">
         <f>MatInDet_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="H13" s="23" t="e">
+      <c r="H13" s="14" t="e">
         <f>I13/G13</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="38" t="e">
+      <c r="I13" s="28" t="e">
         <f>MatInDet_SUMPRICE</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="40"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="39" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="14" t="s">
+      <c r="B16" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="36"/>
-    </row>
-    <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B16:H16"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B1:I1"/>
